--- a/snes/Every Snes Game (US_EU) - GMDQ.xlsx
+++ b/snes/Every Snes Game (US_EU) - GMDQ.xlsx
@@ -1,26 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\2kgames.t2.corp\Network\2KGCZE\ToolTeam\Tableau\DataViz\Hammer\Gameplay\Match Cadence\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\2kgames.t2.corp\Network\2KGCZE\ToolTeam\Tableau\GitHub\103percent\GamesOnSpreadsheets\GamesOnSpreadsheets\snes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F549B85-D68E-4A48-85EC-BD5E1875CB6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E8ADA2A-D16C-4783-ACC2-B2F515BB4FE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4290" yWindow="4290" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1365" yWindow="1650" windowWidth="35235" windowHeight="18300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Raw Data" sheetId="1" r:id="rId1"/>
+    <sheet name="Acknowledgements" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2314" uniqueCount="1103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2321" uniqueCount="1109">
   <si>
     <t>Title</t>
   </si>
@@ -3329,13 +3330,31 @@
   </si>
   <si>
     <t>Hookstone Productions</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t>Media Category</t>
+  </si>
+  <si>
+    <t>Author</t>
+  </si>
+  <si>
+    <t>The SNES Encyclopedia: Every Game Released for the Super Nintendo Entertainment System</t>
+  </si>
+  <si>
+    <t>Book</t>
+  </si>
+  <si>
+    <t>Chris Scullion</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -3353,6 +3372,21 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -3376,10 +3410,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+  <cellXfs count="6">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3600,7 +3643,7 @@
   </sheetPr>
   <dimension ref="A1:D771"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -14406,4 +14449,54 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9B2C521-58EE-4225-A514-0523230A0C72}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="3"/>
+    <col min="2" max="2" width="24.7109375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="43.5703125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>1103</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1104</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>1107</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>1106</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>1108</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/snes/Every Snes Game (US_EU) - GMDQ.xlsx
+++ b/snes/Every Snes Game (US_EU) - GMDQ.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\2kgames.t2.corp\Network\2KGCZE\ToolTeam\Tableau\GitHub\103percent\GamesOnSpreadsheets\GamesOnSpreadsheets\snes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E8ADA2A-D16C-4783-ACC2-B2F515BB4FE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF80F20E-F15D-4A78-9ECE-C72DC731D6E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1365" yWindow="1650" windowWidth="35235" windowHeight="18300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2321" uniqueCount="1109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2323" uniqueCount="1111">
   <si>
     <t>Title</t>
   </si>
@@ -3348,6 +3348,12 @@
   </si>
   <si>
     <t>Chris Scullion</t>
+  </si>
+  <si>
+    <t>Publisher</t>
+  </si>
+  <si>
+    <t>White Owl</t>
   </si>
 </sst>
 </file>
@@ -14453,10 +14459,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9B2C521-58EE-4225-A514-0523230A0C72}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -14465,10 +14471,11 @@
     <col min="2" max="2" width="24.7109375" style="3" customWidth="1"/>
     <col min="3" max="3" width="43.5703125" style="3" customWidth="1"/>
     <col min="4" max="4" width="12.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="3"/>
+    <col min="5" max="5" width="17.5703125" style="3" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>1103</v>
       </c>
@@ -14481,8 +14488,11 @@
       <c r="D1" s="5" t="s">
         <v>1105</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E1" s="5" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -14494,6 +14504,9 @@
       </c>
       <c r="D2" s="4" t="s">
         <v>1108</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>1110</v>
       </c>
     </row>
   </sheetData>
